--- a/data/trans_dic/P79$impuestos_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P79$impuestos_2023-Edad-trans_dic.xlsx
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002056587484121102</v>
+        <v>0.002033908516360448</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03269127287065217</v>
+        <v>0.03889949976274971</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0396178040222445</v>
+        <v>0.03295633635943426</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02316592127889365</v>
+        <v>0.02252901450457142</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.01230264213870303</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.007017607294863623</v>
+        <v>0.007017607294863622</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.009618280741433975</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002651498537739197</v>
+        <v>0.002632495953604988</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002259851673777965</v>
+        <v>0.002246660551638326</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003146826734849629</v>
+        <v>0.003608308274741655</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0347430457869893</v>
+        <v>0.03807888991182392</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01894429917969161</v>
+        <v>0.01852732529067448</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02084550782281058</v>
+        <v>0.0215443466225442</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003276464780072319</v>
+        <v>0.002950412458449161</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008975995922563106</v>
+        <v>0.008235692824504658</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007552028206739139</v>
+        <v>0.007285976136523879</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01953438657903401</v>
+        <v>0.02114569318530078</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02679471292562519</v>
+        <v>0.02689267582196088</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02013661504042313</v>
+        <v>0.01951858000555042</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.006606733363222901</v>
+        <v>0.0070155825007577</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008850659715949689</v>
+        <v>0.008016320032065495</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009179873981550159</v>
+        <v>0.009118059292482463</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02628013858875467</v>
+        <v>0.02818710908614942</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02351610823425673</v>
+        <v>0.02378831585003</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02097274208992898</v>
+        <v>0.02164418216100571</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01552604310212868</v>
+        <v>0.01652729730823543</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.005848147409373694</v>
+        <v>0.00570500224933221</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01231991987164048</v>
+        <v>0.01253335402366522</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03997990858063007</v>
+        <v>0.04200133913258183</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02078491746163222</v>
+        <v>0.02042563122024778</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02686427955499033</v>
+        <v>0.02767665917372493</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003587899400842136</v>
+        <v>0.004087049997405032</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.009865056032912226</v>
+        <v>0.009480649364818378</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.008075484879357575</v>
+        <v>0.009013436428733194</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02139505786642985</v>
+        <v>0.0211156087343023</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02830565525712214</v>
+        <v>0.0285221437122768</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02132390094029976</v>
+        <v>0.02181650483883336</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.01443317176100735</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.00686256329240368</v>
+        <v>0.006862563292403679</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.009947030008363538</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.005305359935067792</v>
+        <v>0.006038536079579484</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.00273906269844894</v>
+        <v>0.002689732445881608</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.004983088978059606</v>
+        <v>0.005121919853641288</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0297152031839423</v>
+        <v>0.03080423713610812</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01504999172094415</v>
+        <v>0.0149477465948248</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01762043728923567</v>
+        <v>0.01691797839430075</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01029605918281001</v>
+        <v>0.009485435034111383</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.009399396646633739</v>
+        <v>0.00962772815988047</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01053367296108176</v>
+        <v>0.01062617340533114</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01809907695909347</v>
+        <v>0.01829296638874374</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01582886406084231</v>
+        <v>0.01597354638539947</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01601811476967736</v>
+        <v>0.01576333169350707</v>
       </c>
     </row>
     <row r="28">
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1471</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12358</v>
+        <v>14705</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13365</v>
+        <v>11117</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16572</v>
+        <v>16116</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3001</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16304</v>
+        <v>17869</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9176</v>
+        <v>8974</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19879</v>
+        <v>20545</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1965</v>
+        <v>1769</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5431</v>
+        <v>4983</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9098</v>
+        <v>8777</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11715</v>
+        <v>12681</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16211</v>
+        <v>16270</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24259</v>
+        <v>23514</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4509</v>
+        <v>4788</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6347</v>
+        <v>5748</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>12848</v>
+        <v>12761</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17935</v>
+        <v>19236</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16863</v>
+        <v>17059</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>29352</v>
+        <v>30292</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9172</v>
+        <v>9763</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3430</v>
+        <v>3346</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>14504</v>
+        <v>14755</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23617</v>
+        <v>24811</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12191</v>
+        <v>11981</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>31627</v>
+        <v>32583</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1423</v>
+        <v>1621</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4206</v>
+        <v>4042</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>6646</v>
+        <v>7418</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8484</v>
+        <v>8374</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12069</v>
+        <v>12161</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>17548</v>
+        <v>17954</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1613</v>
+        <v>1836</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1212</v>
+        <v>1190</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3720</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>9037</v>
+        <v>9368</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>6657</v>
+        <v>6612</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>13152</v>
+        <v>12628</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>35221</v>
+        <v>32448</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>33829</v>
+        <v>34651</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>73945</v>
+        <v>74594</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>61914</v>
+        <v>62577</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>56969</v>
+        <v>57490</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>112445</v>
+        <v>110657</v>
       </c>
     </row>
     <row r="36">
